--- a/xls/correct/G2_TP_A.xlsx
+++ b/xls/correct/G2_TP_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,45 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="20">
   <si>
-    <t>pe</t>
+    <t>si</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>lu</t>
   </si>
   <si>
-    <t>lo</t>
+    <t>ka</t>
   </si>
   <si>
-    <t>bo</t>
+    <t>we</t>
   </si>
   <si>
-    <t>fu</t>
+    <t>me</t>
   </si>
   <si>
-    <t>fa</t>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>ta</t>
   </si>
   <si>
-    <t>ki</t>
+    <t>no</t>
   </si>
   <si>
-    <t>so</t>
+    <t>ku</t>
   </si>
   <si>
-    <t>ne</t>
+    <t>zo</t>
   </si>
   <si>
-    <t>to</t>
+    <t>ko</t>
   </si>
   <si>
-    <t>se</t>
+    <t>pu</t>
   </si>
   <si>
-    <t>ba</t>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>ho</t>
   </si>
 </sst>
 </file>
@@ -393,35 +414,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H1">
         <v>11</v>
@@ -444,25 +465,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -485,25 +506,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -526,25 +547,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -567,25 +588,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -608,25 +629,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -649,25 +670,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -690,25 +711,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -731,25 +752,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -772,25 +793,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -813,25 +834,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -854,25 +875,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -895,25 +916,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -936,25 +957,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -980,22 +1001,22 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1018,25 +1039,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>11</v>
@@ -1059,25 +1080,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1100,25 +1121,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -1141,25 +1162,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>11</v>
@@ -1182,25 +1203,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -1223,25 +1244,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>11</v>
@@ -1264,25 +1285,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -1305,25 +1326,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>11</v>
@@ -1346,25 +1367,25 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>11</v>
@@ -1387,25 +1408,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>11</v>
@@ -1428,25 +1449,25 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>11</v>
@@ -1472,22 +1493,22 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -1510,25 +1531,25 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -1551,25 +1572,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -1592,25 +1613,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>11</v>
@@ -1633,25 +1654,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -1674,25 +1695,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -1715,25 +1736,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -1756,25 +1777,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -1797,25 +1818,25 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>11</v>
@@ -1838,25 +1859,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>11</v>
@@ -1879,25 +1900,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -1920,25 +1941,25 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>11</v>
@@ -1961,25 +1982,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -2002,25 +2023,25 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -2043,25 +2064,25 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>11</v>
@@ -2084,42 +2105,944 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>22</v>
+      </c>
+      <c r="L42">
+        <v>31</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>22</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>21</v>
+      </c>
+      <c r="K44">
+        <v>22</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="M45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>21</v>
+      </c>
+      <c r="K46">
+        <v>22</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>22</v>
+      </c>
+      <c r="L47">
+        <v>31</v>
+      </c>
+      <c r="M47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>22</v>
+      </c>
+      <c r="L48">
+        <v>31</v>
+      </c>
+      <c r="M48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>22</v>
+      </c>
+      <c r="L49">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>9</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>21</v>
+      </c>
+      <c r="K50">
+        <v>22</v>
+      </c>
+      <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <v>22</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>21</v>
-      </c>
-      <c r="K42">
-        <v>22</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>21</v>
+      </c>
+      <c r="K52">
+        <v>22</v>
+      </c>
+      <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>21</v>
+      </c>
+      <c r="K53">
+        <v>22</v>
+      </c>
+      <c r="L53">
+        <v>31</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>21</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>21</v>
+      </c>
+      <c r="K56">
+        <v>22</v>
+      </c>
+      <c r="L56">
+        <v>31</v>
+      </c>
+      <c r="M56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <v>22</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>22</v>
+      </c>
+      <c r="L58">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>22</v>
+      </c>
+      <c r="L59">
+        <v>31</v>
+      </c>
+      <c r="M59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>21</v>
+      </c>
+      <c r="K60">
+        <v>22</v>
+      </c>
+      <c r="L60">
+        <v>31</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>22</v>
+      </c>
+      <c r="L61">
+        <v>31</v>
+      </c>
+      <c r="M61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>21</v>
+      </c>
+      <c r="K62">
+        <v>22</v>
+      </c>
+      <c r="L62">
+        <v>31</v>
+      </c>
+      <c r="M62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>11</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>22</v>
+      </c>
+      <c r="L63">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>21</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
         <v>32</v>
       </c>
     </row>

--- a/xls/correct/G2_TP_A.xlsx
+++ b/xls/correct/G2_TP_A.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M64"/>
+      <selection sqref="A1:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,16 +465,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -483,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -506,25 +506,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -556,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -629,16 +629,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -670,25 +670,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -793,25 +793,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -834,25 +834,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -893,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -916,22 +916,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -957,25 +957,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1039,22 +1039,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -1203,22 +1203,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>11</v>
@@ -1285,25 +1285,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1335,13 +1335,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1408,16 +1408,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>11</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -1531,16 +1531,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -1572,25 +1572,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -1654,25 +1654,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -1695,25 +1695,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -1736,16 +1736,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
@@ -1754,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -1777,25 +1777,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -1818,16 +1818,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -1900,25 +1900,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -1982,22 +1982,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -2032,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
@@ -2123,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>11</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -2196,13 +2196,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -2228,25 +2228,25 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>11</v>
@@ -2269,25 +2269,25 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>2</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>11</v>
@@ -2310,16 +2310,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -2328,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>11</v>
@@ -2351,25 +2351,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>11</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -2433,16 +2433,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
@@ -2451,7 +2451,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>11</v>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2489,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>11</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -2524,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>3</v>
@@ -2597,25 +2597,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>11</v>
@@ -2638,22 +2638,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
@@ -2679,16 +2679,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
@@ -2697,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56">
         <v>11</v>
@@ -2720,16 +2720,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -2779,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58">
         <v>11</v>
@@ -2802,16 +2802,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>11</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -2861,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>11</v>
@@ -2884,16 +2884,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -2902,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>11</v>
@@ -2925,22 +2925,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
